--- a/project/MDK_V5/AT32M412CBT7_Lvgl_analysis.xlsx
+++ b/project/MDK_V5/AT32M412CBT7_Lvgl_analysis.xlsx
@@ -15,20 +15,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
   <si>
     <t>AT32M412CBT7_Lvgl</t>
   </si>
   <si>
-    <t>lto-llvm-6cd09c.o</t>
-  </si>
-  <si>
     <t>startup_at32m412_416.o</t>
   </si>
   <si>
+    <t>lto-llvm-1ddb82.o</t>
+  </si>
+  <si>
+    <t>at32_usart.o</t>
+  </si>
+  <si>
     <t>mc_w.l</t>
   </si>
   <si>
+    <t>bsp_lcd_spi.o</t>
+  </si>
+  <si>
+    <t>lcd_init.o</t>
+  </si>
+  <si>
     <t>mvars.o</t>
   </si>
   <si>
@@ -47,6 +56,9 @@
     <t>mf_w.l</t>
   </si>
   <si>
+    <t>lcd.o</t>
+  </si>
+  <si>
     <t>m_wm.l</t>
   </si>
   <si>
@@ -59,6 +71,9 @@
     <t>ddiv.o</t>
   </si>
   <si>
+    <t>util_queue.o</t>
+  </si>
+  <si>
     <t>lroundf.o</t>
   </si>
   <si>
@@ -131,6 +146,9 @@
     <t>llushr.o</t>
   </si>
   <si>
+    <t>strncmp.o</t>
+  </si>
+  <si>
     <t>llshl.o</t>
   </si>
   <si>
@@ -159,6 +177,9 @@
   </si>
   <si>
     <t>entry5.o</t>
+  </si>
+  <si>
+    <t>touch.o</t>
   </si>
   <si>
     <t>File_name</t>
@@ -278,31 +299,40 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>ram_percent!$A$3:$A$50</c:f>
+              <c:f>ram_percent!$A$3:$A$57</c:f>
               <c:strCache>
-                <c:ptCount val="48"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
-                  <c:v>lto-llvm-6cd09c.o</c:v>
+                  <c:v>startup_at32m412_416.o</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>startup_at32m412_416.o</c:v>
+                  <c:v>lto-llvm-1ddb82.o</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>at32_usart.o</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>mc_w.l</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>bsp_lcd_spi.o</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>lcd_init.o</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>mvars.o</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>stdout.o</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>stderr.o</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>errno.o</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="54">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -310,32 +340,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ram_percent!$B$3:$B$50</c:f>
+              <c:f>ram_percent!$B$3:$B$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
-                  <c:v>72.168701171875</c:v>
+                  <c:v>54.29480361938477</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.40312576293945</c:v>
+                  <c:v>44.97613906860352</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2140869200229645</c:v>
+                  <c:v>0.2386002093553543</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.08563476800918579</c:v>
+                  <c:v>0.132555678486824</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0428173840045929</c:v>
+                  <c:v>0.132555678486824</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0428173840045929</c:v>
+                  <c:v>0.09278897196054459</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0428173840045929</c:v>
-                </c:pt>
-                <c:pt idx="47">
+                  <c:v>0.05302226915955544</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.02651113457977772</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02651113457977772</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.02651113457977772</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -403,11 +442,11 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>flash_percent!$A$3:$A$50</c:f>
+              <c:f>flash_percent!$A$3:$A$57</c:f>
               <c:strCache>
-                <c:ptCount val="48"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
-                  <c:v>lto-llvm-6cd09c.o</c:v>
+                  <c:v>lto-llvm-1ddb82.o</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>mc_w.l</c:v>
@@ -419,135 +458,156 @@
                   <c:v>mf_w.l</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>lcd_init.o</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>bsp_lcd_spi.o</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>startup_at32m412_416.o</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>lcd.o</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>m_wm.l</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>dadd.o</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>dmul.o</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>ddiv.o</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
+                  <c:v>util_queue.o</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>lroundf.o</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
+                  <c:v>at32_usart.o</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>malloc.o</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>depilogue.o</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>fmodf.o</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>fepilogue.o</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>uldiv.o</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>ldiv.o</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>frem.o</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>ffixir.o</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>frnd.o</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>__dczerorl.o</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>d2f.o</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>dcmpgt.o</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>dfixul.o</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>cdrcmple.o</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
                   <c:v>init.o</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
                   <c:v>uidiv.o</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="31">
                   <c:v>dfltl.o</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="32">
                   <c:v>cpp_init.o</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
                   <c:v>f2d.o</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>memseta.o</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="35">
                   <c:v>memcpya.o</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="36">
                   <c:v>llsshr.o</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="37">
                   <c:v>llushr.o</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="38">
+                  <c:v>strncmp.o</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>llshl.o</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="40">
                   <c:v>handlers.o</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="41">
                   <c:v>systick_wrapper_gnu.o</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="42">
                   <c:v>dfltul.o</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="43">
                   <c:v>fputs.o</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="44">
                   <c:v>errno.o</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="45">
                   <c:v>funder.o</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="46">
                   <c:v>mvars.o</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="47">
                   <c:v>entry9a.o</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="48">
                   <c:v>entry2.o</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="49">
                   <c:v>stdout.o</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="50">
                   <c:v>stderr.o</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="51">
                   <c:v>entry8a.o</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="52">
                   <c:v>entry5.o</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="53">
+                  <c:v>touch.o</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>Totals</c:v>
                 </c:pt>
               </c:strCache>
@@ -555,152 +615,173 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>flash_percent!$B$3:$B$50</c:f>
+              <c:f>flash_percent!$B$3:$B$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
-                  <c:v>87.02344512939453</c:v>
+                  <c:v>85.13557434082031</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.78963565826416</c:v>
+                  <c:v>3.478488922119141</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.763526201248169</c:v>
+                  <c:v>2.512727499008179</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.929662227630615</c:v>
+                  <c:v>1.754539251327515</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5767359137535095</c:v>
+                  <c:v>1.260733723640442</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4637917876243591</c:v>
+                  <c:v>0.8652522563934326</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4013120830059052</c:v>
+                  <c:v>0.5243952870368958</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2739495635032654</c:v>
+                  <c:v>0.4391810595989227</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2667403519153595</c:v>
+                  <c:v>0.4217012226581574</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2330974340438843</c:v>
+                  <c:v>0.3648917376995087</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2258882373571396</c:v>
+                  <c:v>0.2490877658128738</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2234851717948914</c:v>
+                  <c:v>0.2425328344106674</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.211469829082489</c:v>
+                  <c:v>0.2206830233335495</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1321686506271362</c:v>
+                  <c:v>0.2119431048631668</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1177502498030663</c:v>
+                  <c:v>0.2119431048631668</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1177502498030663</c:v>
+                  <c:v>0.2053881585597992</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.09852571785449982</c:v>
+                  <c:v>0.2032031863927841</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.09131652116775513</c:v>
+                  <c:v>0.1922782808542252</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.07209198921918869</c:v>
+                  <c:v>0.1201739236712456</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.06968892365694046</c:v>
+                  <c:v>0.1070640385150909</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.06728585809469223</c:v>
+                  <c:v>0.1070640385150909</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.064882792532444</c:v>
+                  <c:v>0.08958420157432556</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.05767359212040901</c:v>
+                  <c:v>0.08302925527095795</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.05767359212040901</c:v>
+                  <c:v>0.06554941087961197</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.05767359212040901</c:v>
+                  <c:v>0.0633644312620163</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.05286745727062225</c:v>
+                  <c:v>0.06117945164442062</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.04806132614612579</c:v>
+                  <c:v>0.05899447202682495</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.04806132614612579</c:v>
+                  <c:v>0.05243952944874764</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.04565826058387756</c:v>
+                  <c:v>0.05243952944874764</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.04325519502162933</c:v>
+                  <c:v>0.05243952944874764</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.04325519502162933</c:v>
+                  <c:v>0.04806957021355629</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.04325519502162933</c:v>
+                  <c:v>0.04369960725307465</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.03844906017184258</c:v>
+                  <c:v>0.04369960725307465</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.03604599460959435</c:v>
+                  <c:v>0.04151462763547897</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.03604599460959435</c:v>
+                  <c:v>0.0393296480178833</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.03364292904734612</c:v>
+                  <c:v>0.0393296480178833</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.02883679606020451</c:v>
+                  <c:v>0.0393296480178833</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.02883679606020451</c:v>
+                  <c:v>0.03495968878269196</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.01922453008592129</c:v>
+                  <c:v>0.03277470543980598</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.01922453008592129</c:v>
+                  <c:v>0.03277470543980598</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.009612265042960644</c:v>
+                  <c:v>0.03277470543980598</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.009612265042960644</c:v>
+                  <c:v>0.03058972582221031</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.009612265042960644</c:v>
+                  <c:v>0.02621976472437382</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.004806132521480322</c:v>
+                  <c:v>0.02621976472437382</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.004806132521480322</c:v>
+                  <c:v>0.01747984439134598</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.004806132521480322</c:v>
+                  <c:v>0.01747984439134598</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.004806132521480322</c:v>
+                  <c:v>0.008739922195672989</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>0.008739922195672989</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.008739922195672989</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.004369961097836494</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.004369961097836494</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.004369961097836494</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.004369961097836494</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.002184980548918247</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -805,8 +886,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H50" totalsRowCount="1">
-  <autoFilter ref="A2:H49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H57" totalsRowCount="1">
+  <autoFilter ref="A2:H56"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="ram_percent" totalsRowFunction="sum"/>
@@ -822,8 +903,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H50" totalsRowCount="1">
-  <autoFilter ref="A2:H49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H57" totalsRowCount="1">
+  <autoFilter ref="A2:H56"/>
   <tableColumns count="8">
     <tableColumn id="1" name="File_name" totalsRowLabel="Totals"/>
     <tableColumn id="2" name="flash_percent" totalsRowFunction="sum"/>
@@ -1123,7 +1204,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1139,28 +1220,28 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1168,25 +1249,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>72.168701171875</v>
+        <v>54.29480361938477</v>
       </c>
       <c r="C3" s="1">
-        <v>6742</v>
+        <v>8192</v>
       </c>
       <c r="D3" s="1">
-        <v>72427</v>
+        <v>480</v>
       </c>
       <c r="E3" s="1">
-        <v>62862</v>
+        <v>36</v>
       </c>
       <c r="F3" s="1">
-        <v>9241</v>
+        <v>444</v>
       </c>
       <c r="G3" s="1">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>6418</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1194,25 +1275,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>27.40312576293945</v>
+        <v>44.97613906860352</v>
       </c>
       <c r="C4" s="1">
-        <v>2560</v>
+        <v>6786</v>
       </c>
       <c r="D4" s="1">
-        <v>480</v>
+        <v>77928</v>
       </c>
       <c r="E4" s="1">
-        <v>36</v>
+        <v>67360</v>
       </c>
       <c r="F4" s="1">
-        <v>444</v>
+        <v>10144</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="H4" s="1">
-        <v>2560</v>
+        <v>6362</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1220,25 +1301,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>0.2140869200229645</v>
+        <v>0.2386002093553543</v>
       </c>
       <c r="C5" s="1">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1">
-        <v>3154</v>
+        <v>194</v>
       </c>
       <c r="E5" s="1">
-        <v>3134</v>
+        <v>194</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1246,22 +1327,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>0.08563476800918579</v>
+        <v>0.132555678486824</v>
       </c>
       <c r="C6" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>8</v>
+        <v>3184</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>3164</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -1272,25 +1353,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>0.0428173840045929</v>
+        <v>0.132555678486824</v>
       </c>
       <c r="C7" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>4</v>
+        <v>792</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>792</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1298,25 +1379,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>0.0428173840045929</v>
+        <v>0.09278897196054459</v>
       </c>
       <c r="C8" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1">
-        <v>4</v>
+        <v>1154</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>1154</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1324,56 +1405,134 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>0.0428173840045929</v>
+        <v>0.05302226915955544</v>
       </c>
       <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.02651113457977772</v>
+      </c>
+      <c r="C10" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.02651113457977772</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.02651113457977772</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
         <v>16</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E12" s="1">
         <v>12</v>
       </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
         <v>4</v>
       </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50">
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
         <f>SUBTOTAL(109,[ram_percent])</f>
         <v>0</v>
       </c>
-      <c r="C50">
+      <c r="C57">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="D50">
+      <c r="D57">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="E50">
+      <c r="E57">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F50">
+      <c r="F57">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G50">
+      <c r="G57">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H50">
+      <c r="H57">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
@@ -1389,7 +1548,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1405,71 +1564,71 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>87.02344512939453</v>
+        <v>85.13557434082031</v>
       </c>
       <c r="C3" s="1">
-        <v>72427</v>
+        <v>77928</v>
       </c>
       <c r="D3" s="1">
-        <v>6742</v>
+        <v>6786</v>
       </c>
       <c r="E3" s="1">
-        <v>62862</v>
+        <v>67360</v>
       </c>
       <c r="F3" s="1">
-        <v>9241</v>
+        <v>10144</v>
       </c>
       <c r="G3" s="1">
-        <v>324</v>
+        <v>424</v>
       </c>
       <c r="H3" s="1">
-        <v>6418</v>
+        <v>6362</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>3.78963565826416</v>
+        <v>3.478488922119141</v>
       </c>
       <c r="C4" s="1">
-        <v>3154</v>
+        <v>3184</v>
       </c>
       <c r="D4" s="1">
         <v>20</v>
       </c>
       <c r="E4" s="1">
-        <v>3134</v>
+        <v>3164</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -1483,10 +1642,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>2.763526201248169</v>
+        <v>2.512727499008179</v>
       </c>
       <c r="C5" s="1">
         <v>2300</v>
@@ -1509,10 +1668,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>1.929662227630615</v>
+        <v>1.754539251327515</v>
       </c>
       <c r="C6" s="1">
         <v>1606</v>
@@ -1535,45 +1694,45 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>0.5767359137535095</v>
+        <v>1.260733723640442</v>
       </c>
       <c r="C7" s="1">
-        <v>480</v>
+        <v>1154</v>
       </c>
       <c r="D7" s="1">
-        <v>2560</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1">
-        <v>36</v>
+        <v>1154</v>
       </c>
       <c r="F7" s="1">
-        <v>444</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>2560</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>0.4637917876243591</v>
+        <v>0.8652522563934326</v>
       </c>
       <c r="C8" s="1">
-        <v>386</v>
+        <v>792</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1">
-        <v>386</v>
+        <v>792</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1582,50 +1741,50 @@
         <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>0.4013120830059052</v>
+        <v>0.5243952870368958</v>
       </c>
       <c r="C9" s="1">
-        <v>334</v>
+        <v>480</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>8192</v>
       </c>
       <c r="E9" s="1">
-        <v>334</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2">
-        <v>0.2739495635032654</v>
+        <v>0.4391810595989227</v>
       </c>
       <c r="C10" s="1">
-        <v>228</v>
+        <v>402</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>228</v>
+        <v>402</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
@@ -1639,19 +1798,19 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2">
-        <v>0.2667403519153595</v>
+        <v>0.4217012226581574</v>
       </c>
       <c r="C11" s="1">
-        <v>222</v>
+        <v>386</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>222</v>
+        <v>386</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
@@ -1665,19 +1824,19 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2">
-        <v>0.2330974340438843</v>
+        <v>0.3648917376995087</v>
       </c>
       <c r="C12" s="1">
-        <v>194</v>
+        <v>334</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>194</v>
+        <v>334</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
@@ -1691,19 +1850,19 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2">
-        <v>0.2258882373571396</v>
+        <v>0.2490877658128738</v>
       </c>
       <c r="C13" s="1">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
@@ -1717,19 +1876,19 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2">
-        <v>0.2234851717948914</v>
+        <v>0.2425328344106674</v>
       </c>
       <c r="C14" s="1">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
@@ -1743,19 +1902,19 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2">
-        <v>0.211469829082489</v>
+        <v>0.2206830233335495</v>
       </c>
       <c r="C15" s="1">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -1769,19 +1928,19 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2">
-        <v>0.1321686506271362</v>
+        <v>0.2119431048631668</v>
       </c>
       <c r="C16" s="1">
-        <v>110</v>
+        <v>194</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>110</v>
+        <v>194</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
@@ -1795,19 +1954,19 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B17" s="2">
-        <v>0.1177502498030663</v>
+        <v>0.2119431048631668</v>
       </c>
       <c r="C17" s="1">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="D17" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E17" s="1">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -1816,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1824,16 +1983,16 @@
         <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>0.1177502498030663</v>
+        <v>0.2053881585597992</v>
       </c>
       <c r="C18" s="1">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>98</v>
+        <v>188</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -1850,16 +2009,16 @@
         <v>21</v>
       </c>
       <c r="B19" s="2">
-        <v>0.09852571785449982</v>
+        <v>0.2032031863927841</v>
       </c>
       <c r="C19" s="1">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -1876,16 +2035,16 @@
         <v>22</v>
       </c>
       <c r="B20" s="2">
-        <v>0.09131652116775513</v>
+        <v>0.1922782808542252</v>
       </c>
       <c r="C20" s="1">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
@@ -1902,16 +2061,16 @@
         <v>23</v>
       </c>
       <c r="B21" s="2">
-        <v>0.07209198921918869</v>
+        <v>0.1201739236712456</v>
       </c>
       <c r="C21" s="1">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="F21" s="1">
         <v>0</v>
@@ -1928,16 +2087,16 @@
         <v>24</v>
       </c>
       <c r="B22" s="2">
-        <v>0.06968892365694046</v>
+        <v>0.1070640385150909</v>
       </c>
       <c r="C22" s="1">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="1">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
@@ -1954,16 +2113,16 @@
         <v>25</v>
       </c>
       <c r="B23" s="2">
-        <v>0.06728585809469223</v>
+        <v>0.1070640385150909</v>
       </c>
       <c r="C23" s="1">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" s="1">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -1980,16 +2139,16 @@
         <v>26</v>
       </c>
       <c r="B24" s="2">
-        <v>0.064882792532444</v>
+        <v>0.08958420157432556</v>
       </c>
       <c r="C24" s="1">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="1">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
@@ -2006,16 +2165,16 @@
         <v>27</v>
       </c>
       <c r="B25" s="2">
-        <v>0.05767359212040901</v>
+        <v>0.08302925527095795</v>
       </c>
       <c r="C25" s="1">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="1">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -2032,16 +2191,16 @@
         <v>28</v>
       </c>
       <c r="B26" s="2">
-        <v>0.05767359212040901</v>
+        <v>0.06554941087961197</v>
       </c>
       <c r="C26" s="1">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D26" s="1">
         <v>0</v>
       </c>
       <c r="E26" s="1">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -2058,16 +2217,16 @@
         <v>29</v>
       </c>
       <c r="B27" s="2">
-        <v>0.05767359212040901</v>
+        <v>0.0633644312620163</v>
       </c>
       <c r="C27" s="1">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="1">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
@@ -2084,16 +2243,16 @@
         <v>30</v>
       </c>
       <c r="B28" s="2">
-        <v>0.05286745727062225</v>
+        <v>0.06117945164442062</v>
       </c>
       <c r="C28" s="1">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -2110,16 +2269,16 @@
         <v>31</v>
       </c>
       <c r="B29" s="2">
-        <v>0.04806132614612579</v>
+        <v>0.05899447202682495</v>
       </c>
       <c r="C29" s="1">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -2136,16 +2295,16 @@
         <v>32</v>
       </c>
       <c r="B30" s="2">
-        <v>0.04806132614612579</v>
+        <v>0.05243952944874764</v>
       </c>
       <c r="C30" s="1">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="1">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -2162,16 +2321,16 @@
         <v>33</v>
       </c>
       <c r="B31" s="2">
-        <v>0.04565826058387756</v>
+        <v>0.05243952944874764</v>
       </c>
       <c r="C31" s="1">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -2188,16 +2347,16 @@
         <v>34</v>
       </c>
       <c r="B32" s="2">
-        <v>0.04325519502162933</v>
+        <v>0.05243952944874764</v>
       </c>
       <c r="C32" s="1">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="1">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -2214,16 +2373,16 @@
         <v>35</v>
       </c>
       <c r="B33" s="2">
-        <v>0.04325519502162933</v>
+        <v>0.04806957021355629</v>
       </c>
       <c r="C33" s="1">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -2240,16 +2399,16 @@
         <v>36</v>
       </c>
       <c r="B34" s="2">
-        <v>0.04325519502162933</v>
+        <v>0.04369960725307465</v>
       </c>
       <c r="C34" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -2266,16 +2425,16 @@
         <v>37</v>
       </c>
       <c r="B35" s="2">
-        <v>0.03844906017184258</v>
+        <v>0.04369960725307465</v>
       </c>
       <c r="C35" s="1">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -2292,16 +2451,16 @@
         <v>38</v>
       </c>
       <c r="B36" s="2">
-        <v>0.03604599460959435</v>
+        <v>0.04151462763547897</v>
       </c>
       <c r="C36" s="1">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -2318,16 +2477,16 @@
         <v>39</v>
       </c>
       <c r="B37" s="2">
-        <v>0.03604599460959435</v>
+        <v>0.0393296480178833</v>
       </c>
       <c r="C37" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -2344,16 +2503,16 @@
         <v>40</v>
       </c>
       <c r="B38" s="2">
-        <v>0.03364292904734612</v>
+        <v>0.0393296480178833</v>
       </c>
       <c r="C38" s="1">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -2370,16 +2529,16 @@
         <v>41</v>
       </c>
       <c r="B39" s="2">
-        <v>0.02883679606020451</v>
+        <v>0.0393296480178833</v>
       </c>
       <c r="C39" s="1">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -2396,16 +2555,16 @@
         <v>42</v>
       </c>
       <c r="B40" s="2">
-        <v>0.02883679606020451</v>
+        <v>0.03495968878269196</v>
       </c>
       <c r="C40" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -2419,25 +2578,25 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2">
-        <v>0.01922453008592129</v>
+        <v>0.03277470543980598</v>
       </c>
       <c r="C41" s="1">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D41" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
       </c>
       <c r="G41" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
@@ -2445,19 +2604,19 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2">
-        <v>0.01922453008592129</v>
+        <v>0.03277470543980598</v>
       </c>
       <c r="C42" s="1">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -2471,25 +2630,25 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2">
-        <v>0.009612265042960644</v>
+        <v>0.03277470543980598</v>
       </c>
       <c r="C43" s="1">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D43" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
       </c>
       <c r="G43" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
@@ -2497,19 +2656,19 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B44" s="2">
-        <v>0.009612265042960644</v>
+        <v>0.03058972582221031</v>
       </c>
       <c r="C44" s="1">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -2523,19 +2682,19 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B45" s="2">
-        <v>0.009612265042960644</v>
+        <v>0.02621976472437382</v>
       </c>
       <c r="C45" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -2549,25 +2708,25 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B46" s="2">
-        <v>0.004806132521480322</v>
+        <v>0.02621976472437382</v>
       </c>
       <c r="C46" s="1">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D46" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
       </c>
       <c r="G46" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
@@ -2575,19 +2734,19 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B47" s="2">
-        <v>0.004806132521480322</v>
+        <v>0.01747984439134598</v>
       </c>
       <c r="C47" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D47" s="1">
         <v>4</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -2601,19 +2760,19 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B48" s="2">
-        <v>0.004806132521480322</v>
+        <v>0.01747984439134598</v>
       </c>
       <c r="C48" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -2627,59 +2786,241 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B49" s="2">
-        <v>0.004806132521480322</v>
+        <v>0.008739922195672989</v>
       </c>
       <c r="C49" s="1">
+        <v>8</v>
+      </c>
+      <c r="D49" s="1">
+        <v>8</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>8</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.008739922195672989</v>
+      </c>
+      <c r="C50" s="1">
+        <v>8</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>8</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.008739922195672989</v>
+      </c>
+      <c r="C51" s="1">
+        <v>8</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>8</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.004369961097836494</v>
+      </c>
+      <c r="C52" s="1">
         <v>4</v>
       </c>
-      <c r="D49" s="1">
-        <v>0</v>
-      </c>
-      <c r="E49" s="1">
+      <c r="D52" s="1">
         <v>4</v>
       </c>
-      <c r="F49" s="1">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1">
-        <v>0</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50">
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>4</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.004369961097836494</v>
+      </c>
+      <c r="C53" s="1">
+        <v>4</v>
+      </c>
+      <c r="D53" s="1">
+        <v>4</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>4</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.004369961097836494</v>
+      </c>
+      <c r="C54" s="1">
+        <v>4</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>4</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.004369961097836494</v>
+      </c>
+      <c r="C55" s="1">
+        <v>4</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>4</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.002184980548918247</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
         <f>SUBTOTAL(109,[flash_percent])</f>
         <v>0</v>
       </c>
-      <c r="C50">
+      <c r="C57">
         <f>SUBTOTAL(109,[flash])</f>
         <v>0</v>
       </c>
-      <c r="D50">
+      <c r="D57">
         <f>SUBTOTAL(109,[ram])</f>
         <v>0</v>
       </c>
-      <c r="E50">
+      <c r="E57">
         <f>SUBTOTAL(109,[Code])</f>
         <v>0</v>
       </c>
-      <c r="F50">
+      <c r="F57">
         <f>SUBTOTAL(109,[RO_data])</f>
         <v>0</v>
       </c>
-      <c r="G50">
+      <c r="G57">
         <f>SUBTOTAL(109,[RW_data])</f>
         <v>0</v>
       </c>
-      <c r="H50">
+      <c r="H57">
         <f>SUBTOTAL(109,[ZI_data])</f>
         <v>0</v>
       </c>
